--- a/data/input/dictionnaire_commentaires.xlsx
+++ b/data/input/dictionnaire_commentaires.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WorkSpace\BabyFoot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/_WorkSpace/BabyFootConnecte/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B392D1D-5AF2-4842-814B-8D5A48B115C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27560" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF_COMMENTS" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="113">
   <si>
     <t>scenario</t>
   </si>
@@ -357,12 +358,21 @@
   </si>
   <si>
     <t>Kikou</t>
+  </si>
+  <si>
+    <t>annulation</t>
+  </si>
+  <si>
+    <t>Attention les rouges, annulation d'un but. Tout abus sera puni</t>
+  </si>
+  <si>
+    <t>Attention les bleus, annulation d'un but. Tout abus sera puni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -776,31 +786,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.19921875" style="5"/>
+    <col min="7" max="7" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
@@ -826,7 +836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -852,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -878,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -904,7 +914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -930,7 +940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -956,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -982,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1008,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1060,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1112,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1216,7 +1226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1294,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1320,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1398,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1424,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1450,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1502,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1528,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1554,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1580,7 +1590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1684,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1736,7 +1746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1814,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1840,7 +1850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1866,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1892,7 +1902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1918,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1944,7 +1954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1970,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2074,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2100,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2152,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2230,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2282,7 +2292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2308,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2334,7 +2344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2438,7 +2448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2464,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2490,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2542,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2568,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2594,7 +2604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2646,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2672,7 +2682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2698,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2750,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2776,7 +2786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2828,7 +2838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2854,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2958,7 +2968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2984,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3010,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3036,7 +3046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3088,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3114,7 +3124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3140,7 +3150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3166,7 +3176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3192,7 +3202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -3244,9 +3254,61 @@
         <v>3</v>
       </c>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="B1:F4"/>
+  <autoFilter ref="B1:F4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
